--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005883</v>
+        <v>3262935.39518519</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>194.9453656527047</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.98934863366319</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.4548648132224</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.9971948932742</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>166.9994511854129</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>67.0765978503803</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>169.3575929423584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>177.9498744325403</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.7835007017901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346624</v>
+        <v>107.5419779170878</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>186.3821020736954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>40.96105405076429</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>204.1076305795087</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>182.4443919360873</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>34.44192933414578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.90335196317894</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>46.52295781333198</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>105.8460632289448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339187</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495797</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>236.5527002104735</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2398.188774620077</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2526.08081531887</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2526.08081531887</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913446</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>135.191465119451</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.462102832032</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1410.044932795071</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.055381897054</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.2628027535235</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6311,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2412.173255970012</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2229.318421624916</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2009.716956647858</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1720.641729992056</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1465.957241786169</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1176.540071749208</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>250.5823850776717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7259,19 +7259,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7396,37 +7396,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891656</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.8926045706001</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>100.1408962628956</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.07684380973541</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>43.26526345294988</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>31.9333173759759</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>179.1866975757052</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>61.40075786968302</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710522.8824838416</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="11">
@@ -26316,31 +26316,31 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.274728755</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.274728755</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26349,13 +26349,13 @@
         <v>706253.2747287551</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26441,10 +26441,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26453,13 +26453,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167042</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-155479.9145744377</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401068</v>
       </c>
       <c r="D6" t="n">
         <v>434487.964640107</v>
       </c>
       <c r="E6" t="n">
-        <v>-344309.6254545308</v>
+        <v>-344657.0047088877</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.1523031781</v>
+        <v>599715.7730488203</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031779</v>
+        <v>599715.7730488206</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.1523031776</v>
+        <v>599715.7730488207</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.7730488208</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105848</v>
+        <v>423292.5538562281</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031781</v>
+        <v>599715.773048821</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.773048821</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951191</v>
+        <v>475507.2623407621</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.1523031777</v>
+        <v>599715.7730488209</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031781</v>
+        <v>599715.7730488213</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.1523031777</v>
+        <v>599715.7730488204</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>218.8388043680903</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>162.4263641753083</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>91.58024064486187</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576294</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>239.8765945562986</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>260.6756606197546</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>51.04847948014705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>168.4323246176523</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>179.8833757750546</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.5731239040507</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.80115265030472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33520,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33994,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427309</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37168,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37642,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3262935.39518519</v>
+        <v>3264695.925487976</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.98934863366319</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>132.9971948932742</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>166.9994511854129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>142.0537755159632</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686258</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>240.7291195778426</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191319154</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9498744325403</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>36.43062059490515</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>107.5419779170878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I22" t="n">
-        <v>40.96105405076429</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>34.45703212904674</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.44192933414578</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.3174219124918</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.2403795762991</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2685.038637852906</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2685.038637852906</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2431.276852490997</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.213965147427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.445309877312</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.979551616233</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.8402196404209</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4552,13 +4552,13 @@
         <v>622.3409528087177</v>
       </c>
       <c r="E5" t="n">
-        <v>236.5527002104735</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>211.3550480191101</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>197.4316439577011</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>317.9726134772827</v>
       </c>
       <c r="D8" t="n">
         <v>74.81188663097703</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
         <v>548.3816362947775</v>
@@ -5007,7 +5007,7 @@
         <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5190,49 +5190,49 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
         <v>1646.803297079993</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5652,67 +5652,67 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
         <v>974.1018203925706</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426764</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602833</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>444.0993955623729</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>276.9032962772529</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>135.191465119451</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2412.173255970012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2229.318421624916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2009.716956647858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1720.641729992056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1465.957241786169</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W31" t="n">
-        <v>1176.540071749208</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X31" t="n">
-        <v>948.5505208511906</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.5505208511906</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6785,16 +6785,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616863</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,34 +7192,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7396,43 +7396,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,13 +7824,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I22" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.9333173759759</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.8202214113361</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,7 +26429,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670381</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26447,19 +26447,19 @@
         <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670352</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670416</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744377</v>
+        <v>-155479.9145744375</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.9646401068</v>
+        <v>434487.9646401069</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401072</v>
       </c>
       <c r="E6" t="n">
-        <v>-344657.0047088877</v>
+        <v>-344344.3633799676</v>
       </c>
       <c r="F6" t="n">
-        <v>599715.7730488203</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="G6" t="n">
-        <v>599715.7730488206</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="H6" t="n">
-        <v>599715.7730488207</v>
+        <v>600028.414377742</v>
       </c>
       <c r="I6" t="n">
-        <v>599715.7730488208</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="J6" t="n">
-        <v>423292.5538562281</v>
+        <v>423605.1951851494</v>
       </c>
       <c r="K6" t="n">
-        <v>599715.773048821</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="L6" t="n">
-        <v>599715.773048821</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="M6" t="n">
-        <v>475507.2623407621</v>
+        <v>475819.9036696833</v>
       </c>
       <c r="N6" t="n">
-        <v>599715.7730488209</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="O6" t="n">
-        <v>599715.7730488213</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="P6" t="n">
-        <v>599715.7730488204</v>
+        <v>600028.4143777422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>162.4263641753083</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.71246049576294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>239.8765945562986</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>181.8689972483939</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>113.9539220428404</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176523</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5731239040507</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.742016973470393e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33505,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950807</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522988</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,31 +34450,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093077</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.76383318075048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>330.3773834724246</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8.181160134948742</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
